--- a/TestFiles/Test files for availableRooms/SQASignOff-AvailableRooms.xlsx
+++ b/TestFiles/Test files for availableRooms/SQASignOff-AvailableRooms.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="40">
   <si>
     <t>File Name</t>
   </si>
@@ -33,9 +33,6 @@
     <t>pass</t>
   </si>
   <si>
-    <t>fail</t>
-  </si>
-  <si>
     <t>Remarks</t>
   </si>
   <si>
@@ -133,6 +130,12 @@
   </si>
   <si>
     <t xml:space="preserve"> rooms030</t>
+  </si>
+  <si>
+    <t>rooms031</t>
+  </si>
+  <si>
+    <t>Moved this file to No Error files.  Program overwites duplicates.</t>
   </si>
 </sst>
 </file>
@@ -191,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -214,6 +217,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A32"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,7 +540,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -555,18 +561,18 @@
         <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4">
-        <v>41385</v>
+        <v>41387</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>4</v>
@@ -574,13 +580,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4">
-        <v>41385</v>
+        <v>41387</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>4</v>
@@ -588,13 +594,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4">
-        <v>41385</v>
+        <v>41387</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>4</v>
@@ -602,13 +608,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="4">
-        <v>41385</v>
+        <v>41387</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>4</v>
@@ -616,13 +622,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="4">
-        <v>41385</v>
+        <v>41387</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>4</v>
@@ -630,27 +636,27 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="4">
-        <v>41385</v>
+        <v>41387</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="4">
-        <v>41385</v>
+        <v>41387</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
@@ -658,13 +664,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="4">
-        <v>41385</v>
+        <v>41387</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
@@ -672,13 +678,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="4">
-        <v>41385</v>
+        <v>41387</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>4</v>
@@ -686,13 +692,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="4">
-        <v>41385</v>
+        <v>41387</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
@@ -700,13 +706,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="4">
-        <v>41385</v>
+        <v>41387</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>4</v>
@@ -714,13 +720,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="4">
-        <v>41385</v>
+        <v>41387</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
@@ -728,13 +734,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="4">
-        <v>41385</v>
+        <v>41387</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>4</v>
@@ -742,13 +748,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="4">
-        <v>41385</v>
+        <v>41387</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>4</v>
@@ -756,13 +762,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="4">
-        <v>41385</v>
+        <v>41387</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>4</v>
@@ -770,13 +776,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="4">
-        <v>41385</v>
+        <v>41387</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
@@ -784,13 +790,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" s="4">
-        <v>41385</v>
+        <v>41387</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>4</v>
@@ -798,13 +804,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" s="4">
-        <v>41385</v>
+        <v>41387</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
@@ -812,13 +818,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" s="4">
-        <v>41385</v>
+        <v>41387</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
@@ -826,13 +832,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" s="4">
-        <v>41385</v>
+        <v>41387</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>4</v>
@@ -840,13 +846,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="4">
-        <v>41385</v>
+        <v>41387</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>4</v>
@@ -854,13 +860,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" s="4">
-        <v>41385</v>
+        <v>41387</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>4</v>
@@ -868,13 +874,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" s="4">
-        <v>41385</v>
+        <v>41387</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>4</v>
@@ -882,13 +888,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" s="4">
-        <v>41385</v>
+        <v>41387</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>4</v>
@@ -896,13 +902,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" s="4">
-        <v>41385</v>
+        <v>41387</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>4</v>
@@ -910,13 +916,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="4">
-        <v>41385</v>
+        <v>41387</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>4</v>
@@ -924,13 +930,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" s="4">
-        <v>41385</v>
+        <v>41387</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>4</v>
@@ -938,13 +944,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" s="4">
-        <v>41385</v>
+        <v>41387</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>4</v>
@@ -952,13 +958,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" s="4">
-        <v>41385</v>
+        <v>41387</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>4</v>
@@ -966,16 +972,33 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="4">
+        <v>41387</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="4">
-        <v>41385</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="B33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="4">
+        <v>41387</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
